--- a/public/template_report/payment_template.xlsx
+++ b/public/template_report/payment_template.xlsx
@@ -94,9 +94,6 @@
     <t xml:space="preserve"> Jl. Industri Timur Raya Blok WW5 No. 18</t>
   </si>
   <si>
-    <t>Jababeka Phase 2 Cikarang Pusat</t>
-  </si>
-  <si>
     <t>JOB NUMBER</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Payment From:</t>
+  </si>
+  <si>
+    <t>Jababeka Phase 2 Cikarang Utara</t>
   </si>
 </sst>
 </file>
@@ -633,6 +633,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -642,88 +719,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -770,7 +770,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +837,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:L6"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,114 +1159,114 @@
       <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="30"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
+      <c r="A6" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,41 +1296,41 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="A11" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="10"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -1340,18 +1340,18 @@
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -1383,18 +1383,18 @@
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="66"/>
+      <c r="B19" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="89"/>
       <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1404,10 +1404,10 @@
       <c r="J19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="67"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
@@ -1420,26 +1420,26 @@
       <c r="H20" s="32"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="19"/>
-      <c r="I21" s="87" t="s">
+      <c r="I21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="87" t="s">
+      <c r="I22" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:18" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23" s="38" t="s">
@@ -1450,12 +1450,12 @@
     </row>
     <row r="24" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+        <v>18</v>
+      </c>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
@@ -1464,11 +1464,11 @@
       <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="A27" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -1481,19 +1481,19 @@
     </row>
     <row r="28" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1515,20 +1515,20 @@
     </row>
     <row r="30" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="B30" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="53"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1536,12 +1536,12 @@
     </row>
     <row r="31" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="49"/>
       <c r="G31" s="53"/>
       <c r="I31" s="1"/>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="32" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
+      <c r="B32" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1599,12 +1599,12 @@
     </row>
     <row r="34" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
+      <c r="B34" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="47"/>
       <c r="G34" s="51"/>
       <c r="I34" s="1"/>
@@ -1612,19 +1612,19 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
     </row>
     <row r="35" spans="1:18" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="47"/>
@@ -1638,23 +1638,23 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="93"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="46"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
+      <c r="J36" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
       <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -1665,15 +1665,40 @@
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="54"/>
-      <c r="J37" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
+      <c r="J37" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I30:N30"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="B31:E31"/>
@@ -1683,38 +1708,13 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I30:N30"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="J6:L6"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <dataValidations count="26">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A19:A20"/>

--- a/public/template_report/payment_template.xlsx
+++ b/public/template_report/payment_template.xlsx
@@ -633,6 +633,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -651,21 +708,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,56 +716,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -759,73 +759,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>111920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>46298</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1043283" cy="449002"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3145" b="30939"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="111920" y="46298"/>
-          <a:ext cx="1043283" cy="449002"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -837,7 +770,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,7 +779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -863,6 +796,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>465401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1285875" cy="465401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1135,7 +1112,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,114 +1136,114 @@
       <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="30"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,41 +1273,41 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
       <c r="I11" s="10"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -1340,18 +1317,18 @@
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -1383,18 +1360,18 @@
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1404,10 +1381,10 @@
       <c r="J19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="93" t="s">
+      <c r="K19" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="93"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
@@ -1420,26 +1397,26 @@
       <c r="H20" s="32"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="19"/>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
     </row>
     <row r="23" spans="1:18" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23" s="38" t="s">
@@ -1452,10 +1429,10 @@
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
@@ -1464,11 +1441,11 @@
       <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -1481,19 +1458,19 @@
     </row>
     <row r="28" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1515,20 +1492,20 @@
     </row>
     <row r="30" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
       <c r="G30" s="53"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1536,12 +1513,12 @@
     </row>
     <row r="31" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="49"/>
       <c r="G31" s="53"/>
       <c r="I31" s="1"/>
@@ -1557,16 +1534,16 @@
     </row>
     <row r="32" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67" t="s">
+      <c r="C32" s="85"/>
+      <c r="D32" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="87"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1599,12 +1576,12 @@
     </row>
     <row r="34" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
       <c r="F34" s="47"/>
       <c r="G34" s="51"/>
       <c r="I34" s="1"/>
@@ -1612,11 +1589,11 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
     </row>
     <row r="35" spans="1:18" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
@@ -1638,23 +1615,23 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67" t="s">
+      <c r="C36" s="85"/>
+      <c r="D36" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="46"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
       <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -1665,22 +1642,39 @@
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="54"/>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I30:N30"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="A3:H3"/>
@@ -1690,31 +1684,14 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I30:N30"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <dataValidations count="26">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A19:A20"/>
